--- a/DataSheets/D2C.xlsx
+++ b/DataSheets/D2C.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kritiverma\Coe\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kritiverma\Desktop\COE New\COE\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDFA4BE-9D62-4516-8C05-08711076ED46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7918510-C28D-4B81-B624-CC880674E1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EAFDC3D-DC9B-4805-8A74-3B1D105CB75E}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +465,7 @@
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>12121993</v>
+        <v>31393</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>

--- a/DataSheets/D2C.xlsx
+++ b/DataSheets/D2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kritiverma\Desktop\COE New\COE\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7918510-C28D-4B81-B624-CC880674E1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428D9AD-E40F-4C3F-9A69-4169DA336F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EAFDC3D-DC9B-4805-8A74-3B1D105CB75E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>OwnerRelationship</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Zipcode</t>
+  </si>
+  <si>
+    <t>11/25/1991</t>
   </si>
 </sst>
 </file>
@@ -137,8 +140,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -457,7 +460,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +468,7 @@
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,7 +488,7 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
@@ -523,8 +526,8 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
-        <v>31393</v>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -532,7 +535,7 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">

--- a/DataSheets/D2C.xlsx
+++ b/DataSheets/D2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kritiverma\Desktop\COE New\COE\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428D9AD-E40F-4C3F-9A69-4169DA336F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF550F-20F0-4ED0-AC85-7E0B1DCBB485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EAFDC3D-DC9B-4805-8A74-3B1D105CB75E}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>kriti.verma-x@unqork.com</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -94,24 +91,19 @@
   </si>
   <si>
     <t>11/25/1991</t>
+  </si>
+  <si>
+    <t>kriti.verma-x+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,17 +126,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,7 +450,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,7 +458,7 @@
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,7 +478,7 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
@@ -501,13 +491,13 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -526,8 +516,8 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -535,8 +525,8 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -549,10 +539,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{B08CE5B0-EF1F-43C5-AAD3-D345FC64C95C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>